--- a/xls/14048-108-240007085_3.xlsx
+++ b/xls/14048-108-240007085_3.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ค่ารักษาพยาบาล</t>
+          <t>ค่ารักษาพยาบาลทั่วไป</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -787,12 +787,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ค่าแพทย์ฝาดและหัตถการ</t>
+          <t>ค่าแพทย์ฝาตัดและหัตถการ</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">

--- a/xls/14048-108-240007085_3.xlsx
+++ b/xls/14048-108-240007085_3.xlsx
@@ -787,12 +787,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ค่าแพทย์ฝาตัดและหัตถการ</t>
+          <t>ค่าแพทย์ฝาดและหัตถการ</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -875,12 +875,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
+          <t>อุบัติเหตุจราจร (ER Accident)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
